--- a/outputs/evaluation_gcn_248.xlsx
+++ b/outputs/evaluation_gcn_248.xlsx
@@ -782,13 +782,13 @@
         <v>2048</v>
       </c>
       <c r="H10" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="I10" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.5341577159235309</v>
       </c>
     </row>
     <row r="11">
@@ -816,13 +816,13 @@
         <v>2048</v>
       </c>
       <c r="H11" t="n">
-        <v>-1</v>
+        <v>99</v>
       </c>
       <c r="I11" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.6774368420935224</v>
       </c>
     </row>
     <row r="12">
@@ -850,13 +850,13 @@
         <v>2048</v>
       </c>
       <c r="H12" t="n">
-        <v>-1</v>
+        <v>95</v>
       </c>
       <c r="I12" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.5336262952077446</v>
       </c>
     </row>
     <row r="13">
@@ -884,13 +884,13 @@
         <v>2048</v>
       </c>
       <c r="H13" t="n">
-        <v>-1</v>
+        <v>99</v>
       </c>
       <c r="I13" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.5115068948792587</v>
       </c>
     </row>
     <row r="14">
@@ -918,13 +918,13 @@
         <v>2048</v>
       </c>
       <c r="H14" t="n">
-        <v>-1</v>
+        <v>100</v>
       </c>
       <c r="I14" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.7084563139590735</v>
       </c>
     </row>
     <row r="15">
@@ -952,13 +952,13 @@
         <v>2048</v>
       </c>
       <c r="H15" t="n">
-        <v>-1</v>
+        <v>99</v>
       </c>
       <c r="I15" t="n">
-        <v>-1</v>
+        <v>52</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.5540865651324844</v>
       </c>
     </row>
     <row r="16">
